--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Mrc1-Ptprc.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Mrc1-Ptprc.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.166865902783806</v>
+        <v>14.71647433333334</v>
       </c>
       <c r="H2">
-        <v>0.166865902783806</v>
+        <v>44.14942300000001</v>
       </c>
       <c r="I2">
-        <v>0.001395811459039932</v>
+        <v>0.1054330184450109</v>
       </c>
       <c r="J2">
-        <v>0.001395811459039932</v>
+        <v>0.1054330184450109</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.26694538163215</v>
+        <v>205.313027</v>
       </c>
       <c r="N2">
-        <v>1.26694538163215</v>
+        <v>615.9390810000001</v>
       </c>
       <c r="O2">
-        <v>0.005348233706838133</v>
+        <v>0.435242422384838</v>
       </c>
       <c r="P2">
-        <v>0.005348233706838133</v>
+        <v>0.435242422384838</v>
       </c>
       <c r="Q2">
-        <v>0.2114099848838223</v>
+        <v>3021.483892144475</v>
       </c>
       <c r="R2">
-        <v>0.2114099848838223</v>
+        <v>27193.35502930027</v>
       </c>
       <c r="S2">
-        <v>7.465125893628279E-06</v>
+        <v>0.04588892234735186</v>
       </c>
       <c r="T2">
-        <v>7.465125893628279E-06</v>
+        <v>0.04588892234735186</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.166865902783806</v>
+        <v>14.71647433333334</v>
       </c>
       <c r="H3">
-        <v>0.166865902783806</v>
+        <v>44.14942300000001</v>
       </c>
       <c r="I3">
-        <v>0.001395811459039932</v>
+        <v>0.1054330184450109</v>
       </c>
       <c r="J3">
-        <v>0.001395811459039932</v>
+        <v>0.1054330184450109</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.113772122052608</v>
+        <v>0.186821</v>
       </c>
       <c r="N3">
-        <v>0.113772122052608</v>
+        <v>0.5604629999999999</v>
       </c>
       <c r="O3">
-        <v>0.0004802731884750883</v>
+        <v>0.0003960412341120362</v>
       </c>
       <c r="P3">
-        <v>0.0004802731884750883</v>
+        <v>0.0003960412341120362</v>
       </c>
       <c r="Q3">
-        <v>0.0189846878579378</v>
+        <v>2.749346451427667</v>
       </c>
       <c r="R3">
-        <v>0.0189846878579378</v>
+        <v>24.744118062849</v>
       </c>
       <c r="S3">
-        <v>6.703708199431732E-07</v>
+        <v>4.175582274111919E-05</v>
       </c>
       <c r="T3">
-        <v>6.703708199431732E-07</v>
+        <v>4.175582274111919E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,57 +655,57 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.166865902783806</v>
+        <v>14.71647433333334</v>
       </c>
       <c r="H4">
-        <v>0.166865902783806</v>
+        <v>44.14942300000001</v>
       </c>
       <c r="I4">
-        <v>0.001395811459039932</v>
+        <v>0.1054330184450109</v>
       </c>
       <c r="J4">
-        <v>0.001395811459039932</v>
+        <v>0.1054330184450109</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>235.509712324066</v>
+        <v>266.1765593333333</v>
       </c>
       <c r="N4">
-        <v>235.509712324066</v>
+        <v>798.529678</v>
       </c>
       <c r="O4">
-        <v>0.9941714931046868</v>
+        <v>0.5642668278730386</v>
       </c>
       <c r="P4">
-        <v>0.9941714931046868</v>
+        <v>0.5642668278730386</v>
       </c>
       <c r="Q4">
-        <v>39.29854076130972</v>
+        <v>3917.180503563978</v>
       </c>
       <c r="R4">
-        <v>39.29854076130972</v>
+        <v>35254.6245320758</v>
       </c>
       <c r="S4">
-        <v>0.001387675962326361</v>
+        <v>0.05949235487104589</v>
       </c>
       <c r="T4">
-        <v>0.001387675962326361</v>
+        <v>0.05949235487104589</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -714,55 +714,55 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.0472159530513379</v>
+        <v>14.71647433333334</v>
       </c>
       <c r="H5">
-        <v>0.0472159530513379</v>
+        <v>44.14942300000001</v>
       </c>
       <c r="I5">
-        <v>0.0003949552737801433</v>
+        <v>0.1054330184450109</v>
       </c>
       <c r="J5">
-        <v>0.0003949552737801433</v>
+        <v>0.1054330184450109</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>1.26694538163215</v>
+        <v>0.044676</v>
       </c>
       <c r="N5">
-        <v>1.26694538163215</v>
+        <v>0.134028</v>
       </c>
       <c r="O5">
-        <v>0.005348233706838133</v>
+        <v>9.470850801135487E-05</v>
       </c>
       <c r="P5">
-        <v>0.005348233706838133</v>
+        <v>9.470850801135488E-05</v>
       </c>
       <c r="Q5">
-        <v>0.05982003365775297</v>
+        <v>0.6574732073160001</v>
       </c>
       <c r="R5">
-        <v>0.05982003365775297</v>
+        <v>5.917258865844001</v>
       </c>
       <c r="S5">
-        <v>2.112313107924446E-06</v>
+        <v>9.985403872060642E-06</v>
       </c>
       <c r="T5">
-        <v>2.112313107924446E-06</v>
+        <v>9.985403872060644E-06</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,55 +776,55 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.0472159530513379</v>
+        <v>0.07385333333333334</v>
       </c>
       <c r="H6">
-        <v>0.0472159530513379</v>
+        <v>0.22156</v>
       </c>
       <c r="I6">
-        <v>0.0003949552737801433</v>
+        <v>0.0005291063388682706</v>
       </c>
       <c r="J6">
-        <v>0.0003949552737801433</v>
+        <v>0.0005291063388682705</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.113772122052608</v>
+        <v>205.313027</v>
       </c>
       <c r="N6">
-        <v>0.113772122052608</v>
+        <v>615.9390810000001</v>
       </c>
       <c r="O6">
-        <v>0.0004802731884750883</v>
+        <v>0.435242422384838</v>
       </c>
       <c r="P6">
-        <v>0.0004802731884750883</v>
+        <v>0.435242422384838</v>
       </c>
       <c r="Q6">
-        <v>0.005371859173387025</v>
+        <v>15.16305142070667</v>
       </c>
       <c r="R6">
-        <v>0.005371859173387025</v>
+        <v>136.46746278636</v>
       </c>
       <c r="S6">
-        <v>1.896864286434409E-07</v>
+        <v>0.0002302895246281991</v>
       </c>
       <c r="T6">
-        <v>1.896864286434409E-07</v>
+        <v>0.000230289524628199</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,60 +838,60 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.0472159530513379</v>
+        <v>0.07385333333333334</v>
       </c>
       <c r="H7">
-        <v>0.0472159530513379</v>
+        <v>0.22156</v>
       </c>
       <c r="I7">
-        <v>0.0003949552737801433</v>
+        <v>0.0005291063388682706</v>
       </c>
       <c r="J7">
-        <v>0.0003949552737801433</v>
+        <v>0.0005291063388682705</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>235.509712324066</v>
+        <v>0.186821</v>
       </c>
       <c r="N7">
-        <v>235.509712324066</v>
+        <v>0.5604629999999999</v>
       </c>
       <c r="O7">
-        <v>0.9941714931046868</v>
+        <v>0.0003960412341120362</v>
       </c>
       <c r="P7">
-        <v>0.9941714931046868</v>
+        <v>0.0003960412341120362</v>
       </c>
       <c r="Q7">
-        <v>11.11981552022719</v>
+        <v>0.01379735358666667</v>
       </c>
       <c r="R7">
-        <v>11.11981552022719</v>
+        <v>0.12417618228</v>
       </c>
       <c r="S7">
-        <v>0.0003926532742435754</v>
+        <v>2.095479274218911E-07</v>
       </c>
       <c r="T7">
-        <v>0.0003926532742435754</v>
+        <v>2.09547927421891E-07</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,60 +900,60 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>119.170453987866</v>
+        <v>0.07385333333333334</v>
       </c>
       <c r="H8">
-        <v>119.170453987866</v>
+        <v>0.22156</v>
       </c>
       <c r="I8">
-        <v>0.9968452660503463</v>
+        <v>0.0005291063388682706</v>
       </c>
       <c r="J8">
-        <v>0.9968452660503463</v>
+        <v>0.0005291063388682705</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.26694538163215</v>
+        <v>266.1765593333333</v>
       </c>
       <c r="N8">
-        <v>1.26694538163215</v>
+        <v>798.529678</v>
       </c>
       <c r="O8">
-        <v>0.005348233706838133</v>
+        <v>0.5642668278730386</v>
       </c>
       <c r="P8">
-        <v>0.005348233706838133</v>
+        <v>0.5642668278730386</v>
       </c>
       <c r="Q8">
-        <v>150.9824563069335</v>
+        <v>19.65802616196445</v>
       </c>
       <c r="R8">
-        <v>150.9824563069335</v>
+        <v>176.92223545768</v>
       </c>
       <c r="S8">
-        <v>0.005331361452392489</v>
+        <v>0.0002985571554407161</v>
       </c>
       <c r="T8">
-        <v>0.005331361452392489</v>
+        <v>0.000298557155440716</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -962,55 +962,55 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>119.170453987866</v>
+        <v>0.07385333333333334</v>
       </c>
       <c r="H9">
-        <v>119.170453987866</v>
+        <v>0.22156</v>
       </c>
       <c r="I9">
-        <v>0.9968452660503463</v>
+        <v>0.0005291063388682706</v>
       </c>
       <c r="J9">
-        <v>0.9968452660503463</v>
+        <v>0.0005291063388682705</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.113772122052608</v>
+        <v>0.044676</v>
       </c>
       <c r="N9">
-        <v>0.113772122052608</v>
+        <v>0.134028</v>
       </c>
       <c r="O9">
-        <v>0.0004802731884750883</v>
+        <v>9.470850801135487E-05</v>
       </c>
       <c r="P9">
-        <v>0.0004802731884750883</v>
+        <v>9.470850801135488E-05</v>
       </c>
       <c r="Q9">
-        <v>13.5582754361722</v>
+        <v>0.003299471520000001</v>
       </c>
       <c r="R9">
-        <v>13.5582754361722</v>
+        <v>0.02969524368</v>
       </c>
       <c r="S9">
-        <v>0.0004787580543422975</v>
+        <v>5.011087193356424E-08</v>
       </c>
       <c r="T9">
-        <v>0.0004787580543422975</v>
+        <v>5.011087193356424E-08</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,60 +1024,60 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>119.170453987866</v>
+        <v>124.584409</v>
       </c>
       <c r="H10">
-        <v>119.170453987866</v>
+        <v>373.753227</v>
       </c>
       <c r="I10">
-        <v>0.9968452660503463</v>
+        <v>0.8925582306290469</v>
       </c>
       <c r="J10">
-        <v>0.9968452660503463</v>
+        <v>0.8925582306290469</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>235.509712324066</v>
+        <v>205.313027</v>
       </c>
       <c r="N10">
-        <v>235.509712324066</v>
+        <v>615.9390810000001</v>
       </c>
       <c r="O10">
-        <v>0.9941714931046868</v>
+        <v>0.435242422384838</v>
       </c>
       <c r="P10">
-        <v>0.9941714931046868</v>
+        <v>0.435242422384838</v>
       </c>
       <c r="Q10">
-        <v>28065.79933621066</v>
+        <v>25578.80212879605</v>
       </c>
       <c r="R10">
-        <v>28065.79933621066</v>
+        <v>230209.2191591644</v>
       </c>
       <c r="S10">
-        <v>0.9910351465436115</v>
+        <v>0.3884792064185113</v>
       </c>
       <c r="T10">
-        <v>0.9910351465436115</v>
+        <v>0.3884792064185113</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
@@ -1086,60 +1086,60 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.163059000218411</v>
+        <v>124.584409</v>
       </c>
       <c r="H11">
-        <v>0.163059000218411</v>
+        <v>373.753227</v>
       </c>
       <c r="I11">
-        <v>0.001363967216833593</v>
+        <v>0.8925582306290469</v>
       </c>
       <c r="J11">
-        <v>0.001363967216833593</v>
+        <v>0.8925582306290469</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.26694538163215</v>
+        <v>0.186821</v>
       </c>
       <c r="N11">
-        <v>1.26694538163215</v>
+        <v>0.5604629999999999</v>
       </c>
       <c r="O11">
-        <v>0.005348233706838133</v>
+        <v>0.0003960412341120362</v>
       </c>
       <c r="P11">
-        <v>0.005348233706838133</v>
+        <v>0.0003960412341120362</v>
       </c>
       <c r="Q11">
-        <v>0.2065868472602716</v>
+        <v>23.274983873789</v>
       </c>
       <c r="R11">
-        <v>0.2065868472602716</v>
+        <v>209.474854864101</v>
       </c>
       <c r="S11">
-        <v>7.294815444091621E-06</v>
+        <v>0.0003534898631751831</v>
       </c>
       <c r="T11">
-        <v>7.294815444091621E-06</v>
+        <v>0.0003534898631751831</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>24</v>
@@ -1148,60 +1148,60 @@
         <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.163059000218411</v>
+        <v>124.584409</v>
       </c>
       <c r="H12">
-        <v>0.163059000218411</v>
+        <v>373.753227</v>
       </c>
       <c r="I12">
-        <v>0.001363967216833593</v>
+        <v>0.8925582306290469</v>
       </c>
       <c r="J12">
-        <v>0.001363967216833593</v>
+        <v>0.8925582306290469</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.113772122052608</v>
+        <v>266.1765593333333</v>
       </c>
       <c r="N12">
-        <v>0.113772122052608</v>
+        <v>798.529678</v>
       </c>
       <c r="O12">
-        <v>0.0004802731884750883</v>
+        <v>0.5642668278730386</v>
       </c>
       <c r="P12">
-        <v>0.0004802731884750883</v>
+        <v>0.5642668278730386</v>
       </c>
       <c r="Q12">
-        <v>0.01855156847462529</v>
+        <v>33161.44933419677</v>
       </c>
       <c r="R12">
-        <v>0.01855156847462529</v>
+        <v>298453.0440077709</v>
       </c>
       <c r="S12">
-        <v>6.55076884204162E-07</v>
+        <v>0.5036410014890244</v>
       </c>
       <c r="T12">
-        <v>6.55076884204162E-07</v>
+        <v>0.5036410014890244</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>
@@ -1210,55 +1210,303 @@
         <v>25</v>
       </c>
       <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>124.584409</v>
+      </c>
+      <c r="H13">
+        <v>373.753227</v>
+      </c>
+      <c r="I13">
+        <v>0.8925582306290469</v>
+      </c>
+      <c r="J13">
+        <v>0.8925582306290469</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M13">
+        <v>0.044676</v>
+      </c>
+      <c r="N13">
+        <v>0.134028</v>
+      </c>
+      <c r="O13">
+        <v>9.470850801135487E-05</v>
+      </c>
+      <c r="P13">
+        <v>9.470850801135488E-05</v>
+      </c>
+      <c r="Q13">
+        <v>5.565933056484001</v>
+      </c>
+      <c r="R13">
+        <v>50.09339750835601</v>
+      </c>
+      <c r="S13">
+        <v>8.453285833613182E-05</v>
+      </c>
+      <c r="T13">
+        <v>8.453285833613184E-05</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.2065306666666666</v>
+      </c>
+      <c r="H14">
+        <v>0.6195919999999999</v>
+      </c>
+      <c r="I14">
+        <v>0.001479644587073792</v>
+      </c>
+      <c r="J14">
+        <v>0.001479644587073792</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>205.313027</v>
+      </c>
+      <c r="N14">
+        <v>615.9390810000001</v>
+      </c>
+      <c r="O14">
+        <v>0.435242422384838</v>
+      </c>
+      <c r="P14">
+        <v>0.435242422384838</v>
+      </c>
+      <c r="Q14">
+        <v>42.40343634166133</v>
+      </c>
+      <c r="R14">
+        <v>381.630927074952</v>
+      </c>
+      <c r="S14">
+        <v>0.0006440040943466107</v>
+      </c>
+      <c r="T14">
+        <v>0.0006440040943466107</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.2065306666666666</v>
+      </c>
+      <c r="H15">
+        <v>0.6195919999999999</v>
+      </c>
+      <c r="I15">
+        <v>0.001479644587073792</v>
+      </c>
+      <c r="J15">
+        <v>0.001479644587073792</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0.186821</v>
+      </c>
+      <c r="N15">
+        <v>0.5604629999999999</v>
+      </c>
+      <c r="O15">
+        <v>0.0003960412341120362</v>
+      </c>
+      <c r="P15">
+        <v>0.0003960412341120362</v>
+      </c>
+      <c r="Q15">
+        <v>0.03858426567733333</v>
+      </c>
+      <c r="R15">
+        <v>0.3472583910959999</v>
+      </c>
+      <c r="S15">
+        <v>5.860002683118988E-07</v>
+      </c>
+      <c r="T15">
+        <v>5.860002683118988E-07</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>22</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>0.163059000218411</v>
-      </c>
-      <c r="H13">
-        <v>0.163059000218411</v>
-      </c>
-      <c r="I13">
-        <v>0.001363967216833593</v>
-      </c>
-      <c r="J13">
-        <v>0.001363967216833593</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>235.509712324066</v>
-      </c>
-      <c r="N13">
-        <v>235.509712324066</v>
-      </c>
-      <c r="O13">
-        <v>0.9941714931046868</v>
-      </c>
-      <c r="P13">
-        <v>0.9941714931046868</v>
-      </c>
-      <c r="Q13">
-        <v>38.40197823328779</v>
-      </c>
-      <c r="R13">
-        <v>38.40197823328779</v>
-      </c>
-      <c r="S13">
-        <v>0.001356017324505298</v>
-      </c>
-      <c r="T13">
-        <v>0.001356017324505298</v>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.2065306666666666</v>
+      </c>
+      <c r="H16">
+        <v>0.6195919999999999</v>
+      </c>
+      <c r="I16">
+        <v>0.001479644587073792</v>
+      </c>
+      <c r="J16">
+        <v>0.001479644587073792</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>266.1765593333333</v>
+      </c>
+      <c r="N16">
+        <v>798.529678</v>
+      </c>
+      <c r="O16">
+        <v>0.5642668278730386</v>
+      </c>
+      <c r="P16">
+        <v>0.5642668278730386</v>
+      </c>
+      <c r="Q16">
+        <v>54.97362225015288</v>
+      </c>
+      <c r="R16">
+        <v>494.7626002513759</v>
+      </c>
+      <c r="S16">
+        <v>0.0008349143575276408</v>
+      </c>
+      <c r="T16">
+        <v>0.0008349143575276408</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.2065306666666666</v>
+      </c>
+      <c r="H17">
+        <v>0.6195919999999999</v>
+      </c>
+      <c r="I17">
+        <v>0.001479644587073792</v>
+      </c>
+      <c r="J17">
+        <v>0.001479644587073792</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M17">
+        <v>0.044676</v>
+      </c>
+      <c r="N17">
+        <v>0.134028</v>
+      </c>
+      <c r="O17">
+        <v>9.470850801135487E-05</v>
+      </c>
+      <c r="P17">
+        <v>9.470850801135488E-05</v>
+      </c>
+      <c r="Q17">
+        <v>0.009226964063999999</v>
+      </c>
+      <c r="R17">
+        <v>0.08304267657599999</v>
+      </c>
+      <c r="S17">
+        <v>1.401349312288361E-07</v>
+      </c>
+      <c r="T17">
+        <v>1.401349312288361E-07</v>
       </c>
     </row>
   </sheetData>
